--- a/Test battery data.xlsx
+++ b/Test battery data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-7440" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NO1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NO3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NO4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COMPARE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NO1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NO3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NO4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="COMPARE" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -208,14 +208,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -238,8 +238,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -265,7 +265,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -276,7 +276,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -451,7 +451,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -462,7 +462,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -637,7 +637,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -648,7 +648,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -823,7 +823,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -834,7 +834,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1016,9 +1016,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -1041,8 +1041,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1053,8 +1053,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1066,9 +1066,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1104,7 +1104,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1119,9 +1119,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -1144,8 +1144,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1156,16 +1156,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1194,16 +1194,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -1231,14 +1231,14 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1261,8 +1261,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1288,7 +1288,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1299,7 +1299,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1474,7 +1474,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1485,7 +1485,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1667,9 +1667,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -1692,8 +1692,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1704,8 +1704,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1717,9 +1717,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1755,7 +1755,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1770,9 +1770,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -1795,8 +1795,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1807,16 +1807,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1845,16 +1845,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -1882,14 +1882,14 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1912,8 +1912,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1939,7 +1939,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1950,7 +1950,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2125,7 +2125,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2136,7 +2136,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2311,7 +2311,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2322,7 +2322,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2513,7 +2513,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2524,7 +2524,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2707,9 +2707,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -2732,8 +2732,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2743,8 +2743,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2756,9 +2756,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2794,7 +2794,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -2809,9 +2809,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -2834,8 +2834,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2846,16 +2846,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2906,9 +2906,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -2935,8 +2935,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2947,16 +2947,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2985,16 +2985,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3022,14 +3022,14 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:r>
               <a:rPr lang="nb-NO"/>
               <a:t>None</a:t>
@@ -3039,8 +3039,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -3066,7 +3066,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3077,7 +3077,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3268,7 +3268,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3279,7 +3279,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3464,8 +3464,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3477,9 +3477,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3515,7 +3515,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -3532,16 +3532,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3594,16 +3594,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3632,16 +3632,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3669,14 +3669,14 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -3699,8 +3699,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -3726,7 +3726,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3737,7 +3737,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3912,7 +3912,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3923,7 +3923,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4098,7 +4098,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -4109,7 +4109,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4291,9 +4291,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -4316,8 +4316,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -4328,8 +4328,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -4341,9 +4341,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -4379,7 +4379,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -4394,9 +4394,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -4419,8 +4419,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -4431,16 +4431,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -4469,16 +4469,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -4506,14 +4506,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -4536,8 +4536,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -4563,7 +4563,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4574,7 +4574,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4749,7 +4749,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4760,7 +4760,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4942,9 +4942,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -4967,8 +4967,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -4979,8 +4979,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -4992,9 +4992,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -5030,7 +5030,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -5045,9 +5045,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -5070,8 +5070,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -5082,16 +5082,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -5120,16 +5120,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -5157,14 +5157,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -5187,8 +5187,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -5214,7 +5214,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5225,7 +5225,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5400,7 +5400,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5411,7 +5411,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5586,7 +5586,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -5597,7 +5597,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5788,7 +5788,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -5799,7 +5799,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5982,9 +5982,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -6007,8 +6007,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -6019,8 +6019,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -6032,9 +6032,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -6070,7 +6070,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -6085,9 +6085,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -6110,8 +6110,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -6122,16 +6122,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -6182,9 +6182,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -6211,8 +6211,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -6223,16 +6223,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -6261,16 +6261,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -6298,14 +6298,14 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:r>
               <a:t>None</a:t>
             </a:r>
@@ -6314,8 +6314,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -6341,7 +6341,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -6352,7 +6352,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6543,7 +6543,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -6554,7 +6554,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6738,8 +6738,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -6751,9 +6751,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -6789,7 +6789,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -6806,16 +6806,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -6868,16 +6868,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -6906,16 +6906,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -6943,14 +6943,14 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -6973,8 +6973,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -7000,7 +7000,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -7011,7 +7011,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7186,7 +7186,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -7197,7 +7197,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7372,7 +7372,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -7383,7 +7383,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7558,7 +7558,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -7569,7 +7569,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7751,9 +7751,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
                 <a:r>
                   <a:rPr lang="nb-NO" sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -7773,8 +7773,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -7785,8 +7785,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -7798,9 +7798,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -7836,7 +7836,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -7851,9 +7851,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
                 <a:r>
                   <a:rPr lang="nb-NO" sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -7873,8 +7873,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -7885,16 +7885,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -7923,16 +7923,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -7960,14 +7960,14 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -7990,8 +7990,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -8017,7 +8017,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -8028,7 +8028,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8203,7 +8203,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -8214,7 +8214,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8396,9 +8396,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -8421,8 +8421,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -8433,8 +8433,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -8446,9 +8446,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -8484,7 +8484,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -8499,9 +8499,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -8524,8 +8524,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -8536,16 +8536,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -8574,16 +8574,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -8611,14 +8611,14 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -8641,8 +8641,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -8668,7 +8668,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -8679,7 +8679,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8854,7 +8854,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -8865,7 +8865,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9040,7 +9040,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -9051,7 +9051,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9242,7 +9242,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -9253,7 +9253,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9436,9 +9436,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -9461,8 +9461,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -9473,8 +9473,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -9486,9 +9486,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -9524,7 +9524,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -9539,9 +9539,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -9564,8 +9564,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -9576,16 +9576,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -9636,9 +9636,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -9665,8 +9665,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -9677,16 +9677,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -9715,16 +9715,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -9752,14 +9752,14 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:r>
               <a:rPr lang="nb-NO"/>
               <a:t>None</a:t>
@@ -9769,8 +9769,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -9796,7 +9796,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -9807,7 +9807,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9998,7 +9998,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -10009,7 +10009,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -10193,8 +10193,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -10206,9 +10206,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -10244,7 +10244,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -10261,16 +10261,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -10323,16 +10323,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -10361,16 +10361,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -10398,14 +10398,14 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -10429,8 +10429,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -10456,7 +10456,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -10467,7 +10467,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -10642,7 +10642,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -10653,7 +10653,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -10828,7 +10828,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -10839,7 +10839,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -11014,7 +11014,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -11025,7 +11025,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -11207,9 +11207,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -11232,8 +11232,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -11244,8 +11244,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -11257,9 +11257,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -11295,7 +11295,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -11310,9 +11310,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -11335,8 +11335,8 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -11347,16 +11347,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -11385,16 +11385,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -11422,7 +11422,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>9</col>
@@ -11442,9 +11442,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11469,9 +11469,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11496,9 +11496,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11523,9 +11523,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11535,7 +11535,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>9</col>
@@ -11555,9 +11555,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11582,9 +11582,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11609,9 +11609,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11636,9 +11636,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11648,7 +11648,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>9</col>
@@ -11668,9 +11668,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11695,9 +11695,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11722,9 +11722,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11749,9 +11749,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -11761,7 +11761,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>4</col>
@@ -11781,9 +11781,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -12076,7 +12076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -30866,12 +30866,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -49661,12 +49661,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -68456,12 +68456,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -78577,6 +78577,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test battery data.xlsx
+++ b/Test battery data.xlsx
@@ -1446,7 +1446,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J2" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="3">
@@ -1478,7 +1478,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J3" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="4">
@@ -1510,7 +1510,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J4" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="5">
@@ -1542,7 +1542,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J5" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="6">
@@ -1574,7 +1574,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J6" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="7">
@@ -1606,7 +1606,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J7" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="8">
@@ -1638,7 +1638,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J8" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="9">
@@ -1670,7 +1670,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J9" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1702,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J10" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1734,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J11" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="12">
@@ -1766,7 +1766,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J12" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="13">
@@ -1798,7 +1798,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J13" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="14">
@@ -1830,7 +1830,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J14" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="15">
@@ -1862,7 +1862,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J15" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="16">
@@ -1894,7 +1894,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J16" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="17">
@@ -1926,7 +1926,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J17" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="18">
@@ -1958,7 +1958,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J18" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="19">
@@ -1990,7 +1990,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J19" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="20">
@@ -2022,7 +2022,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J20" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="21">
@@ -2054,7 +2054,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J21" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="22">
@@ -2086,7 +2086,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J22" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="23">
@@ -2118,7 +2118,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J23" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="24">
@@ -2150,7 +2150,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J24" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="25">
@@ -2182,7 +2182,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J25" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="26">
@@ -2214,7 +2214,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J26" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="27">
@@ -2246,7 +2246,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J27" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="28">
@@ -2278,7 +2278,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J28" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="29">
@@ -2310,7 +2310,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J29" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="30">
@@ -2342,7 +2342,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J30" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="31">
@@ -2374,7 +2374,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J31" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="32">
@@ -2406,7 +2406,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J32" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="33">
@@ -2438,7 +2438,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J33" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="34">
@@ -2470,7 +2470,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J34" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="35">
@@ -2502,7 +2502,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J35" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="36">
@@ -2534,7 +2534,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J36" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="37">
@@ -2566,7 +2566,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J37" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="38">
@@ -2598,7 +2598,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J38" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="39">
@@ -2630,7 +2630,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J39" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="40">
@@ -2662,7 +2662,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J40" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="41">
@@ -2694,7 +2694,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J41" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="42">
@@ -2726,7 +2726,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J42" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="43">
@@ -2758,7 +2758,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J43" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="44">
@@ -2790,7 +2790,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J44" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="45">
@@ -2822,7 +2822,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J45" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="46">
@@ -2854,7 +2854,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J46" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="47">
@@ -2886,7 +2886,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J47" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="48">
@@ -2918,7 +2918,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J48" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="49">
@@ -2950,7 +2950,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J49" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="50">
@@ -2982,7 +2982,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J50" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="51">
@@ -3014,7 +3014,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J51" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="52">
@@ -3046,7 +3046,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J52" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="53">
@@ -3078,7 +3078,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J53" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="54">
@@ -3110,7 +3110,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J54" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="55">
@@ -3142,7 +3142,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J55" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="56">
@@ -3174,7 +3174,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J56" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="57">
@@ -3206,7 +3206,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J57" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="58">
@@ -3238,7 +3238,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J58" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="59">
@@ -3270,7 +3270,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J59" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="60">
@@ -3302,7 +3302,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J60" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="61">
@@ -3334,7 +3334,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J61" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="62">
@@ -3366,7 +3366,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J62" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="63">
@@ -3398,7 +3398,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J63" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="64">
@@ -3430,7 +3430,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J64" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="65">
@@ -3462,7 +3462,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J65" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="66">
@@ -3494,7 +3494,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J66" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="67">
@@ -3526,7 +3526,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J67" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="68">
@@ -3558,7 +3558,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J68" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="69">
@@ -3590,7 +3590,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J69" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="70">
@@ -3622,7 +3622,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J70" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="71">
@@ -3654,7 +3654,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J71" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="72">
@@ -3686,7 +3686,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J72" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="73">
@@ -3718,7 +3718,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J73" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="74">
@@ -3750,7 +3750,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J74" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="75">
@@ -3782,7 +3782,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J75" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="76">
@@ -3814,7 +3814,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J76" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="77">
@@ -3846,7 +3846,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J77" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="78">
@@ -3878,7 +3878,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J78" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="79">
@@ -3910,7 +3910,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J79" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="80">
@@ -3942,7 +3942,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J80" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="81">
@@ -3974,7 +3974,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J81" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="82">
@@ -4006,7 +4006,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J82" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="83">
@@ -4038,7 +4038,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J83" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="84">
@@ -4070,7 +4070,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J84" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="85">
@@ -4102,7 +4102,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J85" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="86">
@@ -4134,7 +4134,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J86" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="87">
@@ -4166,7 +4166,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J87" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="88">
@@ -4198,7 +4198,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J88" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="89">
@@ -4230,7 +4230,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J89" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="90">
@@ -4262,7 +4262,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J90" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="91">
@@ -4294,7 +4294,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J91" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="92">
@@ -4326,7 +4326,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J92" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="93">
@@ -4358,7 +4358,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J93" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="94">
@@ -4390,7 +4390,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J94" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="95">
@@ -4422,7 +4422,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J95" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="96">
@@ -4454,7 +4454,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J96" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="97">
@@ -4486,7 +4486,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J97" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="98">
@@ -4518,7 +4518,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J98" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="99">
@@ -4550,7 +4550,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J99" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="100">
@@ -4582,7 +4582,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J100" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="101">
@@ -4614,7 +4614,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J101" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="102">
@@ -4646,7 +4646,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J102" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="103">
@@ -4678,7 +4678,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J103" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="104">
@@ -4710,7 +4710,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J104" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="105">
@@ -4742,7 +4742,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J105" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="106">
@@ -4774,7 +4774,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J106" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="107">
@@ -4806,7 +4806,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J107" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="108">
@@ -4838,7 +4838,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J108" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="109">
@@ -4870,7 +4870,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J109" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="110">
@@ -4902,7 +4902,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J110" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="111">
@@ -4934,7 +4934,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J111" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="112">
@@ -4966,7 +4966,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J112" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="113">
@@ -4998,7 +4998,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J113" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="114">
@@ -5030,7 +5030,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J114" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="115">
@@ -5062,7 +5062,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J115" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="116">
@@ -5094,7 +5094,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J116" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="117">
@@ -5126,7 +5126,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J117" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="118">
@@ -5158,7 +5158,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J118" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="119">
@@ -5190,7 +5190,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J119" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="120">
@@ -5222,7 +5222,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J120" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="121">
@@ -5254,7 +5254,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J121" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="122">
@@ -5286,7 +5286,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J122" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="123">
@@ -5318,7 +5318,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J123" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="124">
@@ -5350,7 +5350,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J124" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="125">
@@ -5382,7 +5382,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J125" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="126">
@@ -5414,7 +5414,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J126" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="127">
@@ -5446,7 +5446,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J127" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="128">
@@ -5478,7 +5478,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J128" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="129">
@@ -5510,7 +5510,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J129" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="130">
@@ -5542,7 +5542,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J130" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="131">
@@ -5574,7 +5574,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J131" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="132">
@@ -5606,7 +5606,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J132" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="133">
@@ -5638,7 +5638,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J133" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="134">
@@ -5670,7 +5670,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J134" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="135">
@@ -5702,7 +5702,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J135" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="136">
@@ -5734,7 +5734,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J136" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="137">
@@ -5766,7 +5766,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J137" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="138">
@@ -5798,7 +5798,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J138" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="139">
@@ -5830,7 +5830,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J139" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="140">
@@ -5862,7 +5862,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J140" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="141">
@@ -5894,7 +5894,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J141" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="142">
@@ -5926,7 +5926,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J142" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="143">
@@ -5958,7 +5958,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J143" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="144">
@@ -5990,7 +5990,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J144" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="145">
@@ -6022,7 +6022,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J145" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="146">
@@ -6054,7 +6054,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J146" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="147">
@@ -6086,7 +6086,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J147" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="148">
@@ -6118,7 +6118,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J148" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="149">
@@ -6150,7 +6150,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J149" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="150">
@@ -6182,7 +6182,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J150" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="151">
@@ -6214,7 +6214,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J151" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="152">
@@ -6246,7 +6246,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J152" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="153">
@@ -6278,7 +6278,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J153" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="154">
@@ -6310,7 +6310,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J154" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="155">
@@ -6342,7 +6342,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J155" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="156">
@@ -6374,7 +6374,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J156" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="157">
@@ -6406,7 +6406,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J157" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="158">
@@ -6438,7 +6438,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J158" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="159">
@@ -6470,7 +6470,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J159" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="160">
@@ -6502,7 +6502,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J160" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="161">
@@ -6534,7 +6534,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J161" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="162">
@@ -6566,7 +6566,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J162" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="163">
@@ -6598,7 +6598,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J163" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="164">
@@ -6630,7 +6630,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J164" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="165">
@@ -6662,7 +6662,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J165" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="166">
@@ -6694,7 +6694,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J166" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="167">
@@ -6726,7 +6726,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J167" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="168">
@@ -6758,7 +6758,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J168" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="169">
@@ -6790,7 +6790,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J169" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="170">
@@ -6822,7 +6822,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J170" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="171">
@@ -6854,7 +6854,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J171" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="172">
@@ -6886,7 +6886,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J172" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="173">
@@ -6918,7 +6918,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J173" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="174">
@@ -6950,7 +6950,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J174" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="175">
@@ -6982,7 +6982,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J175" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="176">
@@ -7014,7 +7014,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J176" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="177">
@@ -7046,7 +7046,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J177" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="178">
@@ -7078,7 +7078,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J178" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="179">
@@ -7110,7 +7110,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J179" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="180">
@@ -7142,7 +7142,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J180" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="181">
@@ -7174,7 +7174,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J181" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="182">
@@ -7206,7 +7206,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J182" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="183">
@@ -7238,7 +7238,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J183" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="184">
@@ -7270,7 +7270,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J184" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="185">
@@ -7302,7 +7302,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J185" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="186">
@@ -7334,7 +7334,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J186" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="187">
@@ -7366,7 +7366,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J187" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="188">
@@ -7398,7 +7398,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J188" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="189">
@@ -7430,7 +7430,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J189" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="190">
@@ -7462,7 +7462,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J190" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="191">
@@ -7494,7 +7494,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J191" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="192">
@@ -7526,7 +7526,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J192" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="193">
@@ -7558,7 +7558,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J193" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="194">
@@ -7590,7 +7590,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J194" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="195">
@@ -7622,7 +7622,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J195" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="196">
@@ -7654,7 +7654,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J196" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="197">
@@ -7686,7 +7686,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J197" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="198">
@@ -7718,7 +7718,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J198" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="199">
@@ -7750,7 +7750,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J199" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="200">
@@ -7782,7 +7782,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J200" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="201">
@@ -7814,7 +7814,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J201" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="202">
@@ -7846,7 +7846,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J202" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="203">
@@ -7878,7 +7878,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J203" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="204">
@@ -7910,7 +7910,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J204" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="205">
@@ -7942,7 +7942,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J205" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="206">
@@ -7974,7 +7974,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J206" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="207">
@@ -8006,7 +8006,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J207" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="208">
@@ -8038,7 +8038,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J208" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="209">
@@ -8070,7 +8070,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J209" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="210">
@@ -8102,7 +8102,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J210" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="211">
@@ -8134,7 +8134,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J211" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="212">
@@ -8166,7 +8166,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J212" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="213">
@@ -8198,7 +8198,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J213" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="214">
@@ -8230,7 +8230,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J214" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="215">
@@ -8262,7 +8262,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J215" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="216">
@@ -8294,7 +8294,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J216" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="217">
@@ -8326,7 +8326,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J217" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="218">
@@ -8358,7 +8358,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J218" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="219">
@@ -8390,7 +8390,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J219" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="220">
@@ -8422,7 +8422,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J220" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="221">
@@ -8454,7 +8454,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J221" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="222">
@@ -8486,7 +8486,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J222" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="223">
@@ -8518,7 +8518,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J223" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="224">
@@ -8550,7 +8550,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J224" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="225">
@@ -8582,7 +8582,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J225" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="226">
@@ -8614,7 +8614,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J226" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="227">
@@ -8646,7 +8646,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J227" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="228">
@@ -8678,7 +8678,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J228" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="229">
@@ -8710,7 +8710,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J229" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="230">
@@ -8742,7 +8742,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J230" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="231">
@@ -8774,7 +8774,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J231" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="232">
@@ -8806,7 +8806,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J232" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="233">
@@ -8838,7 +8838,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J233" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="234">
@@ -8870,7 +8870,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J234" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="235">
@@ -8902,7 +8902,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J235" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="236">
@@ -8934,7 +8934,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J236" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="237">
@@ -8966,7 +8966,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J237" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="238">
@@ -8998,7 +8998,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J238" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="239">
@@ -9030,7 +9030,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J239" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="240">
@@ -9062,7 +9062,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J240" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="241">
@@ -9094,7 +9094,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J241" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="242">
@@ -9126,7 +9126,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J242" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="243">
@@ -9158,7 +9158,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J243" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="244">
@@ -9190,7 +9190,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J244" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="245">
@@ -9222,7 +9222,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J245" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="246">
@@ -9254,7 +9254,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J246" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="247">
@@ -9286,7 +9286,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J247" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="248">
@@ -9318,7 +9318,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J248" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="249">
@@ -9350,7 +9350,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J249" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="250">
@@ -9382,7 +9382,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J250" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="251">
@@ -9414,7 +9414,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J251" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="252">
@@ -9446,7 +9446,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J252" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="253">
@@ -9478,7 +9478,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J253" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="254">
@@ -9510,7 +9510,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J254" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="255">
@@ -9542,7 +9542,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J255" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="256">
@@ -9574,7 +9574,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J256" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="257">
@@ -9606,7 +9606,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J257" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="258">
@@ -9638,7 +9638,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J258" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="259">
@@ -9670,7 +9670,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J259" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="260">
@@ -9702,7 +9702,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J260" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="261">
@@ -9734,7 +9734,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J261" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="262">
@@ -9766,7 +9766,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J262" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="263">
@@ -9798,7 +9798,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J263" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="264">
@@ -9830,7 +9830,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J264" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="265">
@@ -9862,7 +9862,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J265" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="266">
@@ -9894,7 +9894,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J266" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="267">
@@ -9926,7 +9926,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J267" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="268">
@@ -9958,7 +9958,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J268" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="269">
@@ -9990,7 +9990,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J269" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="270">
@@ -10022,7 +10022,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J270" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="271">
@@ -10054,7 +10054,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J271" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="272">
@@ -10086,7 +10086,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J272" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="273">
@@ -10118,7 +10118,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J273" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="274">
@@ -10150,7 +10150,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J274" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="275">
@@ -10182,7 +10182,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J275" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="276">
@@ -10214,7 +10214,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J276" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="277">
@@ -10246,7 +10246,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J277" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="278">
@@ -10278,7 +10278,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J278" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="279">
@@ -10310,7 +10310,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J279" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="280">
@@ -10342,7 +10342,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J280" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="281">
@@ -10374,7 +10374,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J281" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="282">
@@ -10406,7 +10406,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J282" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="283">
@@ -10438,7 +10438,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J283" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="284">
@@ -10470,7 +10470,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J284" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="285">
@@ -10502,7 +10502,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J285" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="286">
@@ -10534,7 +10534,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J286" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="287">
@@ -10566,7 +10566,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J287" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="288">
@@ -10598,7 +10598,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J288" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="289">
@@ -10630,7 +10630,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J289" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="290">
@@ -10662,7 +10662,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J290" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="291">
@@ -10694,7 +10694,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J291" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="292">
@@ -10726,7 +10726,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J292" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="293">
@@ -10758,7 +10758,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J293" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="294">
@@ -10790,7 +10790,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J294" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="295">
@@ -10822,7 +10822,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J295" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="296">
@@ -10854,7 +10854,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J296" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="297">
@@ -10886,7 +10886,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J297" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="298">
@@ -10918,7 +10918,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J298" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="299">
@@ -10950,7 +10950,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J299" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="300">
@@ -10982,7 +10982,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J300" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="301">
@@ -11014,7 +11014,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J301" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="302">
@@ -11046,7 +11046,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J302" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="303">
@@ -11078,7 +11078,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J303" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="304">
@@ -11110,7 +11110,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J304" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="305">
@@ -11142,7 +11142,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J305" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="306">
@@ -11174,7 +11174,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J306" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="307">
@@ -11206,7 +11206,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J307" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="308">
@@ -11238,7 +11238,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J308" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="309">
@@ -11270,7 +11270,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J309" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="310">
@@ -11302,7 +11302,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J310" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="311">
@@ -11334,7 +11334,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J311" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="312">
@@ -11366,7 +11366,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J312" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="313">
@@ -11398,7 +11398,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J313" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="314">
@@ -11430,7 +11430,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J314" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="315">
@@ -11462,7 +11462,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J315" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="316">
@@ -11494,7 +11494,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J316" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="317">
@@ -11526,7 +11526,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J317" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="318">
@@ -11558,7 +11558,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J318" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="319">
@@ -11590,7 +11590,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J319" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="320">
@@ -11622,7 +11622,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J320" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="321">
@@ -11654,7 +11654,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J321" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="322">
@@ -11686,7 +11686,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J322" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="323">
@@ -11718,7 +11718,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J323" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="324">
@@ -11750,7 +11750,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J324" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="325">
@@ -11782,7 +11782,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J325" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="326">
@@ -11814,7 +11814,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J326" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="327">
@@ -11846,7 +11846,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J327" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="328">
@@ -11878,7 +11878,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J328" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="329">
@@ -11910,7 +11910,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J329" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="330">
@@ -11942,7 +11942,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J330" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="331">
@@ -11974,7 +11974,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J331" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="332">
@@ -12006,7 +12006,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J332" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="333">
@@ -12038,7 +12038,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J333" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="334">
@@ -12070,7 +12070,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J334" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="335">
@@ -12102,7 +12102,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J335" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="336">
@@ -12134,7 +12134,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J336" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="337">
@@ -12166,7 +12166,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J337" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="338">
@@ -12198,7 +12198,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J338" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="339">
@@ -12230,7 +12230,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J339" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="340">
@@ -12262,7 +12262,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J340" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="341">
@@ -12294,7 +12294,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J341" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="342">
@@ -12326,7 +12326,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J342" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="343">
@@ -12358,7 +12358,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J343" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="344">
@@ -12390,7 +12390,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J344" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="345">
@@ -12422,7 +12422,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J345" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="346">
@@ -12454,7 +12454,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J346" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="347">
@@ -12486,7 +12486,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J347" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="348">
@@ -12518,7 +12518,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J348" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="349">
@@ -12550,7 +12550,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J349" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="350">
@@ -12582,7 +12582,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J350" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="351">
@@ -12614,7 +12614,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J351" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="352">
@@ -12646,7 +12646,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J352" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="353">
@@ -12678,7 +12678,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J353" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="354">
@@ -12710,7 +12710,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J354" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="355">
@@ -12742,7 +12742,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J355" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="356">
@@ -12774,7 +12774,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J356" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="357">
@@ -12806,7 +12806,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J357" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="358">
@@ -12838,7 +12838,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J358" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="359">
@@ -12870,7 +12870,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J359" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="360">
@@ -12902,7 +12902,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J360" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="361">
@@ -12934,7 +12934,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J361" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="362">
@@ -12966,7 +12966,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J362" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="363">
@@ -12998,7 +12998,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J363" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="364">
@@ -13030,7 +13030,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J364" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="365">
@@ -13062,7 +13062,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J365" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="366">
@@ -13094,7 +13094,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J366" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="367">
@@ -13126,7 +13126,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J367" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="368">
@@ -13158,7 +13158,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J368" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="369">
@@ -13190,7 +13190,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J369" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="370">
@@ -13222,7 +13222,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J370" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="371">
@@ -13254,7 +13254,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J371" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="372">
@@ -13286,7 +13286,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J372" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="373">
@@ -13318,7 +13318,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J373" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="374">
@@ -13350,7 +13350,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J374" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="375">
@@ -13382,7 +13382,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J375" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="376">
@@ -13414,7 +13414,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J376" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="377">
@@ -13446,7 +13446,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J377" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="378">
@@ -13478,7 +13478,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J378" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="379">
@@ -13510,7 +13510,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J379" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="380">
@@ -13542,7 +13542,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J380" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="381">
@@ -13574,7 +13574,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J381" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="382">
@@ -13606,7 +13606,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J382" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="383">
@@ -13638,7 +13638,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J383" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="384">
@@ -13646,7 +13646,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>3.86084172137126</v>
+        <v>2.943628008752733</v>
       </c>
       <c r="C384" t="n">
         <v>2.76766</v>
@@ -13655,10 +13655,10 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>0.02099635302698975</v>
+        <v>0.9382100656455162</v>
       </c>
       <c r="F384" t="n">
-        <v>0.02099635302698975</v>
+        <v>0.9382100656455162</v>
       </c>
       <c r="G384" t="n">
         <v>0</v>
@@ -13670,7 +13670,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J384" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="385">
@@ -13696,13 +13696,13 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>4.117898575761064</v>
+        <v>3.152410457215247</v>
       </c>
       <c r="I385" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J385" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="386">
@@ -13719,22 +13719,22 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>4.5</v>
+        <v>3.582786287381473</v>
       </c>
       <c r="F386" t="n">
         <v>3.582786287381473</v>
       </c>
       <c r="G386" t="n">
-        <v>0.9172137126185267</v>
+        <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>8.257898575761065</v>
+        <v>7.292410457215247</v>
       </c>
       <c r="I386" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J386" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="387">
@@ -13766,7 +13766,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J387" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="388">
@@ -13798,7 +13798,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J388" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="389">
@@ -13830,7 +13830,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J389" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="390">
@@ -13862,7 +13862,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J390" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="391">
@@ -13894,7 +13894,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J391" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="392">
@@ -13926,7 +13926,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J392" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="393">
@@ -13958,7 +13958,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J393" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="394">
@@ -13990,7 +13990,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J394" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="395">
@@ -14022,7 +14022,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J395" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="396">
@@ -14054,7 +14054,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J396" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="397">
@@ -14086,7 +14086,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J397" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="398">
@@ -14118,7 +14118,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J398" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="399">
@@ -14150,7 +14150,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J399" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="400">
@@ -14182,7 +14182,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J400" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="401">
@@ -14214,7 +14214,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J401" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="402">
@@ -14246,7 +14246,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J402" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="403">
@@ -14278,7 +14278,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J403" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="404">
@@ -14310,7 +14310,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J404" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="405">
@@ -14342,7 +14342,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J405" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="406">
@@ -14374,7 +14374,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J406" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="407">
@@ -14391,13 +14391,13 @@
         <v>0</v>
       </c>
       <c r="E407" t="n">
-        <v>4.497483588621445</v>
+        <v>3.896425966447848</v>
       </c>
       <c r="F407" t="n">
         <v>3.896425966447848</v>
       </c>
       <c r="G407" t="n">
-        <v>0.6010576221735966</v>
+        <v>0</v>
       </c>
       <c r="H407" t="n">
         <v>4.734193251180468</v>
@@ -14406,7 +14406,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J407" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="408">
@@ -14432,13 +14432,13 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>0.6326922338669441</v>
       </c>
       <c r="I408" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J408" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="409">
@@ -14446,7 +14446,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>3.544857768052517</v>
+        <v>2.94380014587892</v>
       </c>
       <c r="C409" t="n">
         <v>2.6973</v>
@@ -14455,22 +14455,22 @@
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>0.6010576221735969</v>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>0.6010576221735969</v>
       </c>
       <c r="G409" t="n">
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>0.6326922338669441</v>
       </c>
       <c r="I409" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J409" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="410">
@@ -14502,7 +14502,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J410" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="411">
@@ -14534,7 +14534,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J411" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="412">
@@ -14566,7 +14566,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J412" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="413">
@@ -14598,7 +14598,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J413" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="414">
@@ -14630,7 +14630,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J414" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="415">
@@ -14662,7 +14662,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J415" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="416">
@@ -14694,7 +14694,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J416" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="417">
@@ -14726,7 +14726,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J417" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="418">
@@ -14758,7 +14758,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J418" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="419">
@@ -14790,7 +14790,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J419" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="420">
@@ -14798,7 +14798,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.008247264770239404</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
         <v>2.29017</v>
@@ -14807,10 +14807,10 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>3.990293946024801</v>
+        <v>3.99854121079504</v>
       </c>
       <c r="F420" t="n">
-        <v>3.990293946024801</v>
+        <v>3.99854121079504</v>
       </c>
       <c r="G420" t="n">
         <v>0</v>
@@ -14822,7 +14822,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J420" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="421">
@@ -14839,22 +14839,22 @@
         <v>0</v>
       </c>
       <c r="E421" t="n">
-        <v>4.5</v>
+        <v>3.983953318745441</v>
       </c>
       <c r="F421" t="n">
         <v>3.983953318745441</v>
       </c>
       <c r="G421" t="n">
-        <v>0.5160466812545588</v>
+        <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>4.799690583131789</v>
+        <v>4.791009251794695</v>
       </c>
       <c r="I421" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J421" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="422">
@@ -14880,13 +14880,13 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>0.06284847786863157</v>
+        <v>0.597374179431073</v>
       </c>
       <c r="I422" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J422" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="423">
@@ -14912,13 +14912,13 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>4.202848477868632</v>
+        <v>4.737374179431074</v>
       </c>
       <c r="I423" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J423" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="424">
@@ -14944,13 +14944,13 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>0.5345257015624414</v>
       </c>
       <c r="I424" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J424" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="425">
@@ -14976,13 +14976,13 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>4.140000000000001</v>
+        <v>4.674525701562442</v>
       </c>
       <c r="I425" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J425" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="426">
@@ -14990,7 +14990,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.8224806710430328</v>
+        <v>0.3146812545587143</v>
       </c>
       <c r="C426" t="n">
         <v>1.63301</v>
@@ -14999,22 +14999,22 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>3.249000000000002</v>
+        <v>3.75679941648432</v>
       </c>
       <c r="F426" t="n">
-        <v>3.249000000000002</v>
+        <v>3.75679941648432</v>
       </c>
       <c r="G426" t="n">
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>8.280000000000001</v>
+        <v>8.814525701562442</v>
       </c>
       <c r="I426" t="n">
         <v>13511.98292554704</v>
       </c>
       <c r="J426" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="427">
@@ -15046,7 +15046,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J427" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="428">
@@ -15078,7 +15078,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J428" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="429">
@@ -15110,7 +15110,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J429" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="430">
@@ -15142,7 +15142,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J430" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="431">
@@ -15174,7 +15174,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J431" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="432">
@@ -15206,7 +15206,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J432" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="433">
@@ -15238,7 +15238,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J433" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="434">
@@ -15270,7 +15270,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J434" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="435">
@@ -15302,7 +15302,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J435" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="436">
@@ -15334,7 +15334,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J436" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="437">
@@ -15366,7 +15366,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J437" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="438">
@@ -15398,7 +15398,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J438" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="439">
@@ -15430,7 +15430,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J439" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="440">
@@ -15462,7 +15462,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J440" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="441">
@@ -15494,7 +15494,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J441" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="442">
@@ -15526,7 +15526,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J442" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="443">
@@ -15558,7 +15558,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J443" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="444">
@@ -15590,7 +15590,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J444" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="445">
@@ -15622,7 +15622,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J445" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="446">
@@ -15654,7 +15654,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J446" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="447">
@@ -15686,7 +15686,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J447" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="448">
@@ -15718,7 +15718,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J448" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="449">
@@ -15750,7 +15750,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J449" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="450">
@@ -15782,7 +15782,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J450" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="451">
@@ -15814,7 +15814,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J451" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="452">
@@ -15846,7 +15846,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J452" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="453">
@@ -15878,7 +15878,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J453" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="454">
@@ -15910,7 +15910,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J454" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="455">
@@ -15942,7 +15942,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J455" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="456">
@@ -15974,7 +15974,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J456" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="457">
@@ -16006,7 +16006,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J457" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="458">
@@ -16038,7 +16038,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J458" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="459">
@@ -16070,7 +16070,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J459" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="460">
@@ -16102,7 +16102,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J460" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="461">
@@ -16134,7 +16134,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J461" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="462">
@@ -16166,7 +16166,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J462" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="463">
@@ -16198,7 +16198,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J463" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="464">
@@ -16230,7 +16230,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J464" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="465">
@@ -16262,7 +16262,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J465" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="466">
@@ -16294,7 +16294,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J466" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="467">
@@ -16326,7 +16326,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J467" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="468">
@@ -16358,7 +16358,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J468" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="469">
@@ -16390,7 +16390,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J469" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="470">
@@ -16422,7 +16422,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J470" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="471">
@@ -16454,7 +16454,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J471" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="472">
@@ -16486,7 +16486,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J472" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="473">
@@ -16518,7 +16518,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J473" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="474">
@@ -16550,7 +16550,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J474" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="475">
@@ -16582,7 +16582,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J475" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="476">
@@ -16614,7 +16614,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J476" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="477">
@@ -16646,7 +16646,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J477" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="478">
@@ -16678,7 +16678,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J478" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="479">
@@ -16710,7 +16710,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J479" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="480">
@@ -16742,7 +16742,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J480" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="481">
@@ -16774,7 +16774,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J481" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="482">
@@ -16806,7 +16806,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J482" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="483">
@@ -16838,7 +16838,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J483" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="484">
@@ -16870,7 +16870,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J484" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="485">
@@ -16902,7 +16902,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J485" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="486">
@@ -16934,7 +16934,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J486" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="487">
@@ -16966,7 +16966,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J487" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="488">
@@ -16998,7 +16998,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J488" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="489">
@@ -17030,7 +17030,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J489" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="490">
@@ -17062,7 +17062,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J490" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="491">
@@ -17094,7 +17094,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J491" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="492">
@@ -17126,7 +17126,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J492" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="493">
@@ -17158,7 +17158,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J493" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="494">
@@ -17190,7 +17190,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J494" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="495">
@@ -17222,7 +17222,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J495" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="496">
@@ -17254,7 +17254,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J496" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="497">
@@ -17286,7 +17286,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J497" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="498">
@@ -17318,7 +17318,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J498" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="499">
@@ -17350,7 +17350,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J499" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="500">
@@ -17382,7 +17382,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J500" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="501">
@@ -17414,7 +17414,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J501" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="502">
@@ -17446,7 +17446,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J502" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="503">
@@ -17478,7 +17478,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J503" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="504">
@@ -17510,7 +17510,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J504" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="505">
@@ -17542,7 +17542,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J505" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="506">
@@ -17574,7 +17574,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J506" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="507">
@@ -17606,7 +17606,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J507" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="508">
@@ -17638,7 +17638,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J508" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="509">
@@ -17670,7 +17670,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J509" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="510">
@@ -17702,7 +17702,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J510" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="511">
@@ -17734,7 +17734,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J511" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="512">
@@ -17766,7 +17766,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J512" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="513">
@@ -17798,7 +17798,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J513" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="514">
@@ -17830,7 +17830,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J514" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="515">
@@ -17862,7 +17862,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J515" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="516">
@@ -17894,7 +17894,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J516" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="517">
@@ -17926,7 +17926,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J517" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="518">
@@ -17958,7 +17958,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J518" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="519">
@@ -17990,7 +17990,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J519" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="520">
@@ -18022,7 +18022,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J520" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="521">
@@ -18054,7 +18054,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J521" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="522">
@@ -18086,7 +18086,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J522" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="523">
@@ -18118,7 +18118,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J523" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="524">
@@ -18150,7 +18150,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J524" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="525">
@@ -18182,7 +18182,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J525" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="526">
@@ -18214,7 +18214,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J526" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="527">
@@ -18246,7 +18246,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J527" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="528">
@@ -18278,7 +18278,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J528" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="529">
@@ -18310,7 +18310,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J529" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="530">
@@ -18342,7 +18342,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J530" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="531">
@@ -18374,7 +18374,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J531" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="532">
@@ -18406,7 +18406,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J532" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="533">
@@ -18438,7 +18438,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J533" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="534">
@@ -18470,7 +18470,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J534" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="535">
@@ -18502,7 +18502,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J535" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="536">
@@ -18534,7 +18534,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J536" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="537">
@@ -18566,7 +18566,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J537" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="538">
@@ -18598,7 +18598,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J538" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="539">
@@ -18630,7 +18630,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J539" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="540">
@@ -18662,7 +18662,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J540" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="541">
@@ -18694,7 +18694,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J541" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="542">
@@ -18726,7 +18726,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J542" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="543">
@@ -18758,7 +18758,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J543" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="544">
@@ -18790,7 +18790,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J544" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="545">
@@ -18822,7 +18822,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J545" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="546">
@@ -18854,7 +18854,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J546" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="547">
@@ -18886,7 +18886,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J547" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="548">
@@ -18918,7 +18918,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J548" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="549">
@@ -18950,7 +18950,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J549" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="550">
@@ -18982,7 +18982,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J550" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="551">
@@ -19014,7 +19014,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J551" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="552">
@@ -19046,7 +19046,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J552" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="553">
@@ -19078,7 +19078,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J553" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="554">
@@ -19110,7 +19110,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J554" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="555">
@@ -19142,7 +19142,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J555" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="556">
@@ -19174,7 +19174,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J556" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="557">
@@ -19206,7 +19206,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J557" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="558">
@@ -19238,7 +19238,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J558" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="559">
@@ -19270,7 +19270,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J559" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="560">
@@ -19302,7 +19302,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J560" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="561">
@@ -19334,7 +19334,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J561" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="562">
@@ -19366,7 +19366,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J562" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="563">
@@ -19398,7 +19398,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J563" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="564">
@@ -19430,7 +19430,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J564" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="565">
@@ -19462,7 +19462,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J565" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="566">
@@ -19494,7 +19494,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J566" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="567">
@@ -19526,7 +19526,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J567" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="568">
@@ -19558,7 +19558,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J568" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="569">
@@ -19590,7 +19590,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J569" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="570">
@@ -19622,7 +19622,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J570" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="571">
@@ -19654,7 +19654,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J571" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="572">
@@ -19686,7 +19686,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J572" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="573">
@@ -19718,7 +19718,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J573" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="574">
@@ -19750,7 +19750,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J574" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="575">
@@ -19782,7 +19782,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J575" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="576">
@@ -19814,7 +19814,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J576" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="577">
@@ -19846,7 +19846,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J577" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="578">
@@ -19878,7 +19878,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J578" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="579">
@@ -19910,7 +19910,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J579" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="580">
@@ -19942,7 +19942,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J580" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="581">
@@ -19974,7 +19974,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J581" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="582">
@@ -20006,7 +20006,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J582" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="583">
@@ -20038,7 +20038,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J583" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="584">
@@ -20070,7 +20070,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J584" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="585">
@@ -20102,7 +20102,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J585" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="586">
@@ -20134,7 +20134,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J586" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="587">
@@ -20166,7 +20166,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J587" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="588">
@@ -20198,7 +20198,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J588" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="589">
@@ -20230,7 +20230,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J589" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="590">
@@ -20262,7 +20262,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J590" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="591">
@@ -20294,7 +20294,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J591" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="592">
@@ -20326,7 +20326,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J592" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="593">
@@ -20358,7 +20358,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J593" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="594">
@@ -20390,7 +20390,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J594" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="595">
@@ -20422,7 +20422,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J595" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="596">
@@ -20454,7 +20454,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J596" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="597">
@@ -20486,7 +20486,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J597" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="598">
@@ -20518,7 +20518,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J598" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="599">
@@ -20550,7 +20550,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J599" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="600">
@@ -20582,7 +20582,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J600" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="601">
@@ -20614,7 +20614,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J601" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="602">
@@ -20646,7 +20646,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J602" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="603">
@@ -20678,7 +20678,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J603" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="604">
@@ -20710,7 +20710,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J604" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="605">
@@ -20742,7 +20742,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J605" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="606">
@@ -20774,7 +20774,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J606" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="607">
@@ -20806,7 +20806,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J607" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="608">
@@ -20838,7 +20838,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J608" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="609">
@@ -20870,7 +20870,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J609" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="610">
@@ -20902,7 +20902,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J610" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="611">
@@ -20934,7 +20934,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J611" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="612">
@@ -20966,7 +20966,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J612" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="613">
@@ -20998,7 +20998,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J613" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="614">
@@ -21030,7 +21030,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J614" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="615">
@@ -21062,7 +21062,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J615" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="616">
@@ -21094,7 +21094,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J616" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="617">
@@ -21126,7 +21126,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J617" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="618">
@@ -21158,7 +21158,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J618" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="619">
@@ -21190,7 +21190,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J619" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="620">
@@ -21222,7 +21222,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J620" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="621">
@@ -21254,7 +21254,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J621" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="622">
@@ -21286,7 +21286,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J622" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="623">
@@ -21318,7 +21318,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J623" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="624">
@@ -21350,7 +21350,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J624" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="625">
@@ -21382,7 +21382,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J625" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="626">
@@ -21414,7 +21414,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J626" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="627">
@@ -21446,7 +21446,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J627" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="628">
@@ -21478,7 +21478,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J628" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="629">
@@ -21510,7 +21510,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J629" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="630">
@@ -21542,7 +21542,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J630" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="631">
@@ -21574,7 +21574,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J631" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="632">
@@ -21606,7 +21606,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J632" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="633">
@@ -21638,7 +21638,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J633" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="634">
@@ -21670,7 +21670,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J634" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="635">
@@ -21702,7 +21702,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J635" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="636">
@@ -21734,7 +21734,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J636" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="637">
@@ -21766,7 +21766,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J637" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="638">
@@ -21798,7 +21798,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J638" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="639">
@@ -21830,7 +21830,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J639" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="640">
@@ -21862,7 +21862,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J640" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="641">
@@ -21894,7 +21894,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J641" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="642">
@@ -21926,7 +21926,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J642" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="643">
@@ -21958,7 +21958,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J643" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="644">
@@ -21990,7 +21990,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J644" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="645">
@@ -22022,7 +22022,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J645" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="646">
@@ -22054,7 +22054,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J646" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="647">
@@ -22086,7 +22086,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J647" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="648">
@@ -22118,7 +22118,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J648" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="649">
@@ -22150,7 +22150,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J649" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="650">
@@ -22182,7 +22182,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J650" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="651">
@@ -22214,7 +22214,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J651" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="652">
@@ -22246,7 +22246,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J652" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="653">
@@ -22278,7 +22278,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J653" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="654">
@@ -22310,7 +22310,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J654" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="655">
@@ -22342,7 +22342,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J655" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="656">
@@ -22374,7 +22374,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J656" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="657">
@@ -22406,7 +22406,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J657" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="658">
@@ -22438,7 +22438,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J658" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="659">
@@ -22470,7 +22470,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J659" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="660">
@@ -22502,7 +22502,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J660" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="661">
@@ -22534,7 +22534,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J661" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="662">
@@ -22566,7 +22566,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J662" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="663">
@@ -22598,7 +22598,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J663" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="664">
@@ -22630,7 +22630,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J664" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="665">
@@ -22662,7 +22662,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J665" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="666">
@@ -22694,7 +22694,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J666" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="667">
@@ -22726,7 +22726,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J667" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="668">
@@ -22758,7 +22758,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J668" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="669">
@@ -22790,7 +22790,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J669" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="670">
@@ -22822,7 +22822,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J670" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="671">
@@ -22854,7 +22854,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J671" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="672">
@@ -22886,7 +22886,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J672" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="673">
@@ -22918,7 +22918,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J673" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="674">
@@ -22950,7 +22950,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J674" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="675">
@@ -22982,7 +22982,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J675" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="676">
@@ -23014,7 +23014,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J676" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="677">
@@ -23046,7 +23046,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J677" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="678">
@@ -23078,7 +23078,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J678" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="679">
@@ -23110,7 +23110,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J679" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="680">
@@ -23142,7 +23142,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J680" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="681">
@@ -23174,7 +23174,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J681" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="682">
@@ -23206,7 +23206,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J682" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="683">
@@ -23238,7 +23238,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J683" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="684">
@@ -23270,7 +23270,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J684" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="685">
@@ -23302,7 +23302,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J685" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="686">
@@ -23334,7 +23334,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J686" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="687">
@@ -23366,7 +23366,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J687" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="688">
@@ -23398,7 +23398,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J688" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="689">
@@ -23430,7 +23430,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J689" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="690">
@@ -23462,7 +23462,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J690" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="691">
@@ -23494,7 +23494,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J691" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="692">
@@ -23526,7 +23526,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J692" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="693">
@@ -23558,7 +23558,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J693" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="694">
@@ -23590,7 +23590,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J694" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="695">
@@ -23622,7 +23622,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J695" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="696">
@@ -23654,7 +23654,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J696" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="697">
@@ -23686,7 +23686,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J697" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="698">
@@ -23718,7 +23718,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J698" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="699">
@@ -23750,7 +23750,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J699" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="700">
@@ -23782,7 +23782,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J700" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="701">
@@ -23814,7 +23814,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J701" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="702">
@@ -23846,7 +23846,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J702" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="703">
@@ -23878,7 +23878,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J703" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="704">
@@ -23910,7 +23910,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J704" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="705">
@@ -23942,7 +23942,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J705" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="706">
@@ -23974,7 +23974,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J706" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="707">
@@ -24006,7 +24006,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J707" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="708">
@@ -24038,7 +24038,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J708" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="709">
@@ -24070,7 +24070,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J709" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="710">
@@ -24102,7 +24102,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J710" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="711">
@@ -24134,7 +24134,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J711" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="712">
@@ -24166,7 +24166,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J712" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="713">
@@ -24198,7 +24198,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J713" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="714">
@@ -24230,7 +24230,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J714" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="715">
@@ -24262,7 +24262,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J715" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="716">
@@ -24294,7 +24294,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J716" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="717">
@@ -24326,7 +24326,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J717" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="718">
@@ -24358,7 +24358,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J718" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="719">
@@ -24390,7 +24390,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J719" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="720">
@@ -24422,7 +24422,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J720" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
     <row r="721">
@@ -24454,7 +24454,7 @@
         <v>13511.98292554704</v>
       </c>
       <c r="J721" t="n">
-        <v>12745.32973686105</v>
+        <v>12746.14639574635</v>
       </c>
     </row>
   </sheetData>
